--- a/uefa_euro_2016_team_stats.xlsx
+++ b/uefa_euro_2016_team_stats.xlsx
@@ -777,8 +777,8 @@
   <dimension ref="A1:BH25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
